--- a/src/test/java/com/TestData/TestData.xlsx
+++ b/src/test/java/com/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7DA1DE37-1E6F-4941-9788-21BE5891C554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{10C6A025-FAD0-4208-B433-ADEED74C8EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{F7434C01-AA78-4A83-9EAA-52226161AD78}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F7434C01-AA78-4A83-9EAA-52226161AD78}"/>
   </bookViews>
   <sheets>
     <sheet name="regData" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="DesktopCheckoutCC" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J6"/>
+  <oleSize ref="A1:J8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>FirstName</t>
   </si>
@@ -133,37 +133,25 @@
     <t>Sharma</t>
   </si>
   <si>
-    <t>Manu123</t>
-  </si>
-  <si>
-    <t>tanusharma123@tosca.com</t>
-  </si>
-  <si>
-    <t>Manu12</t>
-  </si>
-  <si>
-    <t>nerueni123@tosca.com</t>
-  </si>
-  <si>
-    <t>TestJeni12</t>
-  </si>
-  <si>
-    <t>Garima</t>
-  </si>
-  <si>
-    <t>Dev</t>
-  </si>
-  <si>
-    <t>Mili</t>
-  </si>
-  <si>
-    <t>gardev23@tosca.com</t>
-  </si>
-  <si>
-    <t>TestJeni1234</t>
-  </si>
-  <si>
-    <t>milisharma123@tosca.com</t>
+    <t>Varha</t>
+  </si>
+  <si>
+    <t>Roopam</t>
+  </si>
+  <si>
+    <t>varharoopam@tosca.com</t>
+  </si>
+  <si>
+    <t>tillisharma123@tosca.com</t>
+  </si>
+  <si>
+    <t>Tilli</t>
+  </si>
+  <si>
+    <t>TestJani1234</t>
+  </si>
+  <si>
+    <t>Manushree123</t>
   </si>
 </sst>
 </file>
@@ -550,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3249C-AAFB-493F-928C-62340C4D02EA}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -581,19 +569,19 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -601,19 +589,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -629,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC65F70-13E3-4A2B-B568-BD8CD0E31837}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -689,10 +677,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>30</v>
@@ -733,7 +721,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{5D94555C-0F6B-4995-B17A-33CDFC05546A}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E687B41F-752C-4745-81A7-2764B57C983B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -744,7 +732,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -814,10 +802,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>30</v>
@@ -864,7 +852,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{0F5B2FCA-4350-4F06-83E6-393EF36C2FA0}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{1A5AD09E-16D1-4F6F-AF38-F5B725935595}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/src/test/java/com/TestData/TestData.xlsx
+++ b/src/test/java/com/TestData/TestData.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{10C6A025-FAD0-4208-B433-ADEED74C8EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwala\eclipse-workspace\demowebshop\src\test\java\com\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B36D6B8-DEFE-43ED-A78C-D2FE6F2C9AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F7434C01-AA78-4A83-9EAA-52226161AD78}"/>
   </bookViews>
@@ -11,9 +16,9 @@
     <sheet name="regData" sheetId="2" r:id="rId1"/>
     <sheet name="DesktopCheckoutCOD" sheetId="5" r:id="rId2"/>
     <sheet name="DesktopCheckoutCC" sheetId="4" r:id="rId3"/>
+    <sheet name="LogOn" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>FirstName</t>
   </si>
@@ -133,25 +138,31 @@
     <t>Sharma</t>
   </si>
   <si>
-    <t>Varha</t>
-  </si>
-  <si>
-    <t>Roopam</t>
-  </si>
-  <si>
-    <t>varharoopam@tosca.com</t>
-  </si>
-  <si>
-    <t>tillisharma123@tosca.com</t>
-  </si>
-  <si>
-    <t>Tilli</t>
-  </si>
-  <si>
-    <t>TestJani1234</t>
-  </si>
-  <si>
-    <t>Manushree123</t>
+    <t>Bhola</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>bholasingh@tosca.com</t>
+  </si>
+  <si>
+    <t>Titli</t>
+  </si>
+  <si>
+    <t>titlisharma123@tosca.com</t>
+  </si>
+  <si>
+    <t>Testbhola1234</t>
+  </si>
+  <si>
+    <t>Titli123</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Excellent</t>
   </si>
 </sst>
 </file>
@@ -539,7 +550,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,13 +600,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>42</v>
@@ -618,7 +629,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -721,7 +732,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{E687B41F-752C-4745-81A7-2764B57C983B}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B3F58B79-B3A7-4559-AE0A-399629B2C10E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -802,7 +813,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>42</v>
@@ -852,9 +863,49 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{1A5AD09E-16D1-4F6F-AF38-F5B725935595}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{109FF1D0-2A96-4F78-AEA5-B86A3B647C2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEB440A-D08F-4154-ABB6-0691D97073FD}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{6FF833D6-ECB3-4604-B8C7-A8285C277737}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/java/com/TestData/TestData.xlsx
+++ b/src/test/java/com/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwala\eclipse-workspace\demowebshop\src\test\java\com\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE2E73B-7FC3-40D2-AA7C-49A766AD6BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD293F0-7E13-4325-B683-842BC78183C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F7434C01-AA78-4A83-9EAA-52226161AD78}"/>
   </bookViews>
@@ -153,16 +153,16 @@
     <t>Excellent</t>
   </si>
   <si>
-    <t>Bholu</t>
-  </si>
-  <si>
-    <t>bholusingh@tosca.com</t>
-  </si>
-  <si>
-    <t>milharma123@tosca.com</t>
-  </si>
-  <si>
-    <t>Mili</t>
+    <t>Deepu</t>
+  </si>
+  <si>
+    <t>Tulika</t>
+  </si>
+  <si>
+    <t>deepusingh@tosca.com</t>
+  </si>
+  <si>
+    <t>tulikasarma123@tosca.com</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -586,7 +586,7 @@
         <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>37</v>
@@ -600,13 +600,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>38</v>
@@ -629,7 +629,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -688,7 +688,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>37</v>
@@ -732,7 +732,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{995FFF20-FB84-4399-8C6C-13D4B308C7AD}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{AFC34107-1FDA-4A3D-B636-C02A0F936F8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -743,7 +743,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -813,7 +813,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>38</v>
@@ -863,7 +863,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{BA3DF46D-7B8A-4BF4-8FB8-490E83AC9D8E}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{A7D51714-4C17-4B3E-AC2A-3C0BDB476DE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -875,7 +875,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -893,7 +893,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>38</v>
@@ -904,7 +904,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{5B1CAC07-BCC5-43FA-8C33-3BA8A322E9FA}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{02F9FA3D-561B-4F40-BBA4-97BDEDDCCEDA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
